--- a/Turlikov/Report_2/dop_task/time_data.xlsx
+++ b/Turlikov/Report_2/dop_task/time_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Potato\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14896B5C-7C85-452C-9BB7-22281174B48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D07A674-D191-4BF1-A869-2BF25DA60840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BF8DF05B-B5ED-42C2-AD08-99AB6EBE831C}"/>
   </bookViews>
@@ -415,196 +415,196 @@
                 <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>7.6530699999999993E-2</c:v>
+                  <c:v>3.7511200000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.8834600000000005E-2</c:v>
+                  <c:v>6.1809999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.97678E-2</c:v>
+                  <c:v>7.6447800000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.3866700000000002E-2</c:v>
+                  <c:v>9.6756399999999992E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.4210499999999994E-2</c:v>
+                  <c:v>1.1365399999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.73361E-2</c:v>
+                  <c:v>1.27919E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.8504700000000006E-2</c:v>
+                  <c:v>1.4980500000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.8849499999999998E-2</c:v>
+                  <c:v>1.6268500000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0434500000000001E-2</c:v>
+                  <c:v>1.8113299999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.2064300000000002E-2</c:v>
+                  <c:v>1.96635E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.5041200000000006E-2</c:v>
+                  <c:v>2.15184E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.2357700000000001E-2</c:v>
+                  <c:v>2.3195500000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.6017199999999997E-2</c:v>
+                  <c:v>2.5023500000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.5315700000000003E-2</c:v>
+                  <c:v>2.6227199999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.6999299999999997E-2</c:v>
+                  <c:v>2.7888699999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.7803399999999999E-2</c:v>
+                  <c:v>3.0308600000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.100894</c:v>
+                  <c:v>3.1519600000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.100804</c:v>
+                  <c:v>3.2960099999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.103829</c:v>
+                  <c:v>3.44152E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.10687000000000001</c:v>
+                  <c:v>3.7281599999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.106568</c:v>
+                  <c:v>3.8289400000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.10963299999999999</c:v>
+                  <c:v>3.9527800000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.11289399999999999</c:v>
+                  <c:v>4.1395099999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.118561</c:v>
+                  <c:v>4.3271999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.12008000000000001</c:v>
+                  <c:v>4.4505599999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.123205</c:v>
+                  <c:v>4.6390199999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.11931899999999999</c:v>
+                  <c:v>4.8120099999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.119384</c:v>
+                  <c:v>4.8958500000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.12559400000000001</c:v>
+                  <c:v>5.1220700000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.126529</c:v>
+                  <c:v>5.2711599999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.12783</c:v>
+                  <c:v>5.4754200000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.13139200000000001</c:v>
+                  <c:v>5.5885499999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.13364599999999999</c:v>
+                  <c:v>5.7308600000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.135273</c:v>
+                  <c:v>5.9909999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.13714599999999999</c:v>
+                  <c:v>6.1617999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.140763</c:v>
+                  <c:v>6.4434400000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.140713</c:v>
+                  <c:v>6.4903100000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.14408599999999999</c:v>
+                  <c:v>6.6169000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.143986</c:v>
+                  <c:v>6.7979300000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.147588</c:v>
+                  <c:v>6.9697300000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.14876500000000001</c:v>
+                  <c:v>7.2808700000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.15126100000000001</c:v>
+                  <c:v>7.3653499999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.15268300000000001</c:v>
+                  <c:v>7.4961399999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.15543100000000001</c:v>
+                  <c:v>7.6844899999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.15704299999999999</c:v>
+                  <c:v>7.9095899999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.15632599999999999</c:v>
+                  <c:v>8.0191399999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.15734100000000001</c:v>
+                  <c:v>8.2300399999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.161546</c:v>
+                  <c:v>8.2978499999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.16409099999999999</c:v>
+                  <c:v>8.4682999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.163739</c:v>
+                  <c:v>8.6538400000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.165299</c:v>
+                  <c:v>8.8115200000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.16725400000000001</c:v>
+                  <c:v>9.0050599999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.16980000000000001</c:v>
+                  <c:v>9.1257000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.17197399999999999</c:v>
+                  <c:v>9.4047000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.174208</c:v>
+                  <c:v>9.6853499999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.177369</c:v>
+                  <c:v>9.89588E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.17996200000000001</c:v>
+                  <c:v>9.8788100000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.17965700000000001</c:v>
+                  <c:v>0.100979</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.17827100000000001</c:v>
+                  <c:v>0.10263700000000001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.18441399999999999</c:v>
+                  <c:v>0.104059</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.18393399999999999</c:v>
+                  <c:v>0.105379</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.186363</c:v>
+                  <c:v>0.10815900000000001</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.18931200000000001</c:v>
+                  <c:v>0.109291</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.19272900000000001</c:v>
+                  <c:v>0.11059099999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -850,196 +850,196 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>7.1276500000000007E-2</c:v>
+                  <c:v>3.9643400000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.5664400000000007E-2</c:v>
+                  <c:v>5.5906999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.6694100000000001E-2</c:v>
+                  <c:v>7.5393999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.6668200000000001E-2</c:v>
+                  <c:v>8.8643400000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.6044399999999993E-2</c:v>
+                  <c:v>1.02591E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.5398300000000001E-2</c:v>
+                  <c:v>1.2383099999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.4087699999999996E-2</c:v>
+                  <c:v>1.3592099999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.05424E-2</c:v>
+                  <c:v>1.5039500000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.5359699999999997E-2</c:v>
+                  <c:v>1.6926400000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.1753399999999999E-2</c:v>
+                  <c:v>1.8840599999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.1887399999999994E-2</c:v>
+                  <c:v>2.0801400000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.5108499999999999E-2</c:v>
+                  <c:v>2.1821500000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.0847499999999998E-2</c:v>
+                  <c:v>2.35322E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.02443E-2</c:v>
+                  <c:v>2.4936799999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.10001</c:v>
+                  <c:v>2.6639400000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.10231800000000001</c:v>
+                  <c:v>2.8549700000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.10516200000000001</c:v>
+                  <c:v>3.0092799999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.104783</c:v>
+                  <c:v>3.4164100000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.10322199999999999</c:v>
+                  <c:v>3.3132099999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.111275</c:v>
+                  <c:v>3.5485299999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.111287</c:v>
+                  <c:v>3.64914E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.12511800000000001</c:v>
+                  <c:v>3.8592899999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.11309900000000001</c:v>
+                  <c:v>4.0434900000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.11677999999999999</c:v>
+                  <c:v>4.1734100000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.11366999999999999</c:v>
+                  <c:v>4.2613199999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.117858</c:v>
+                  <c:v>4.6889100000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.12407600000000001</c:v>
+                  <c:v>4.5949799999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.11799</c:v>
+                  <c:v>4.7994700000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.12751799999999999</c:v>
+                  <c:v>4.9243799999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.124442</c:v>
+                  <c:v>5.14726E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.12692100000000001</c:v>
+                  <c:v>5.24045E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.130831</c:v>
+                  <c:v>5.4180100000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.13602600000000001</c:v>
+                  <c:v>5.6090000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.138872</c:v>
+                  <c:v>5.7534099999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.137517</c:v>
+                  <c:v>6.2129499999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.133739</c:v>
+                  <c:v>6.3237100000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.13667599999999999</c:v>
+                  <c:v>6.4125600000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.142292</c:v>
+                  <c:v>6.51085E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.141149</c:v>
+                  <c:v>6.5847100000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.144536</c:v>
+                  <c:v>6.8526599999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.14086199999999999</c:v>
+                  <c:v>7.0565000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.146726</c:v>
+                  <c:v>7.0871100000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.150037</c:v>
+                  <c:v>7.2727700000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.15006800000000001</c:v>
+                  <c:v>7.4516100000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.147203</c:v>
+                  <c:v>7.7898700000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.158274</c:v>
+                  <c:v>7.8102000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.156114</c:v>
+                  <c:v>8.0305399999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.15749299999999999</c:v>
+                  <c:v>8.2472199999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.16587199999999999</c:v>
+                  <c:v>8.3105700000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.162684</c:v>
+                  <c:v>8.5324399999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.164298</c:v>
+                  <c:v>8.7184899999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.17172599999999999</c:v>
+                  <c:v>8.8072800000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.16994999999999999</c:v>
+                  <c:v>9.0371499999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.16883300000000001</c:v>
+                  <c:v>9.1752200000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.18162600000000001</c:v>
+                  <c:v>9.3837799999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.173426</c:v>
+                  <c:v>9.7517999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.17341400000000001</c:v>
+                  <c:v>9.9225099999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.18368100000000001</c:v>
+                  <c:v>9.9303699999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.18393399999999999</c:v>
+                  <c:v>0.102143</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.18154200000000001</c:v>
+                  <c:v>0.102697</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.187028</c:v>
+                  <c:v>0.105084</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.184254</c:v>
+                  <c:v>0.106153</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.18665999999999999</c:v>
+                  <c:v>0.10921400000000001</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.19152</c:v>
+                  <c:v>0.10997899999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1285,196 +1285,196 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>7.6923000000000005E-2</c:v>
+                  <c:v>4.9818400000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.9585599999999997E-2</c:v>
+                  <c:v>5.0137000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.9001299999999997E-2</c:v>
+                  <c:v>4.98088E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.04375E-2</c:v>
+                  <c:v>4.73596E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.9293199999999994E-2</c:v>
+                  <c:v>6.8132000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.4969400000000005E-2</c:v>
+                  <c:v>6.5316000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.0856399999999995E-2</c:v>
+                  <c:v>7.0096000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0424200000000001E-2</c:v>
+                  <c:v>6.5008599999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0052499999999999E-2</c:v>
+                  <c:v>8.8846800000000007E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.5283899999999996E-2</c:v>
+                  <c:v>8.7516E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.0586099999999994E-2</c:v>
+                  <c:v>8.7163199999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.2430199999999995E-2</c:v>
+                  <c:v>8.5166600000000005E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.6287699999999995E-2</c:v>
+                  <c:v>1.07703E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.5256899999999997E-2</c:v>
+                  <c:v>1.0505499999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.2989999999999994E-2</c:v>
+                  <c:v>1.0680800000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.9499399999999998E-2</c:v>
+                  <c:v>1.0654E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.1064200000000003E-2</c:v>
+                  <c:v>1.2522E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.8785299999999998E-2</c:v>
+                  <c:v>1.25831E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.99982E-2</c:v>
+                  <c:v>1.26301E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.5775299999999999E-2</c:v>
+                  <c:v>1.2852199999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.6327399999999999E-2</c:v>
+                  <c:v>1.4343399999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.7421600000000002E-2</c:v>
+                  <c:v>1.43509E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.47797E-2</c:v>
+                  <c:v>1.44814E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.2127000000000001E-2</c:v>
+                  <c:v>1.40581E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.7510099999999993E-2</c:v>
+                  <c:v>1.6307200000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.1848700000000005E-2</c:v>
+                  <c:v>1.6301599999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.9755299999999996E-2</c:v>
+                  <c:v>1.64166E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.0635099999999996E-2</c:v>
+                  <c:v>1.5909900000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.3407900000000002E-2</c:v>
+                  <c:v>1.82708E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.6547200000000005E-2</c:v>
+                  <c:v>1.8243499999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.5419800000000004E-2</c:v>
+                  <c:v>1.8048100000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9.4814599999999999E-2</c:v>
+                  <c:v>1.93195E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9.3882699999999999E-2</c:v>
+                  <c:v>1.9872999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.7806300000000004E-2</c:v>
+                  <c:v>1.9938000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9.0534600000000007E-2</c:v>
+                  <c:v>2.0208799999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9.5679E-2</c:v>
+                  <c:v>2.02443E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9.5458799999999996E-2</c:v>
+                  <c:v>2.17597E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9.3280500000000002E-2</c:v>
+                  <c:v>2.1970400000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9.5606300000000005E-2</c:v>
+                  <c:v>2.1965499999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9.0996400000000005E-2</c:v>
+                  <c:v>2.1690000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.4139399999999998E-2</c:v>
+                  <c:v>2.34357E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9.7802399999999998E-2</c:v>
+                  <c:v>2.3513300000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>9.7899899999999998E-2</c:v>
+                  <c:v>2.39463E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.101021</c:v>
+                  <c:v>2.34399E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>9.4003500000000004E-2</c:v>
+                  <c:v>2.5637E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.10128</c:v>
+                  <c:v>2.54676E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>9.2905299999999996E-2</c:v>
+                  <c:v>2.5474199999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.10145700000000001</c:v>
+                  <c:v>2.4956099999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>9.5094899999999996E-2</c:v>
+                  <c:v>2.7125699999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.101558</c:v>
+                  <c:v>2.7869999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.101579</c:v>
+                  <c:v>2.7294800000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.102883</c:v>
+                  <c:v>2.7286100000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.106518</c:v>
+                  <c:v>2.9109900000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.105547</c:v>
+                  <c:v>2.9553699999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.106173</c:v>
+                  <c:v>2.9448100000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.101468</c:v>
+                  <c:v>2.88478E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.10287200000000001</c:v>
+                  <c:v>3.07552E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.110565</c:v>
+                  <c:v>3.05659E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>9.7630999999999996E-2</c:v>
+                  <c:v>3.0565100000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.105558</c:v>
+                  <c:v>3.02025E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.10581699999999999</c:v>
+                  <c:v>3.2562000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.111341</c:v>
+                  <c:v>3.2096800000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.10578600000000001</c:v>
+                  <c:v>3.2319500000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.10395799999999999</c:v>
+                  <c:v>3.2871999999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1720,196 +1720,196 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>7.2365299999999994E-2</c:v>
+                  <c:v>4.56172E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.1376100000000007E-2</c:v>
+                  <c:v>4.6907600000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0746399999999996E-2</c:v>
+                  <c:v>4.4930999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.3504700000000001E-2</c:v>
+                  <c:v>4.4927200000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.6294299999999995E-2</c:v>
+                  <c:v>4.7302799999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.6134800000000002E-2</c:v>
+                  <c:v>4.5865599999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.0434400000000003E-2</c:v>
+                  <c:v>4.47556E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.7915399999999996E-2</c:v>
+                  <c:v>4.9040400000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.3036400000000001E-2</c:v>
+                  <c:v>7.9606599999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.4913099999999996E-2</c:v>
+                  <c:v>8.1644999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.9217599999999999E-2</c:v>
+                  <c:v>8.2967200000000005E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.5468400000000005E-2</c:v>
+                  <c:v>8.2085200000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.0559699999999998E-2</c:v>
+                  <c:v>8.17646E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.3868200000000004E-2</c:v>
+                  <c:v>8.1017999999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.0931100000000006E-2</c:v>
+                  <c:v>8.0513400000000006E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.1375100000000006E-2</c:v>
+                  <c:v>8.0078800000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.1980199999999994E-2</c:v>
+                  <c:v>9.0514399999999991E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.8135199999999997E-2</c:v>
+                  <c:v>9.09832E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.8900699999999999E-2</c:v>
+                  <c:v>9.0896599999999994E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.5165199999999996E-2</c:v>
+                  <c:v>8.8032600000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.5745799999999997E-2</c:v>
+                  <c:v>8.5980999999999991E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.5037399999999999E-2</c:v>
+                  <c:v>9.7824399999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.2438300000000006E-2</c:v>
+                  <c:v>9.0443199999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.0349199999999996E-2</c:v>
+                  <c:v>8.7769200000000006E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.0688700000000002E-2</c:v>
+                  <c:v>1.0024999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.0025399999999997E-2</c:v>
+                  <c:v>1.0347800000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.3368100000000001E-2</c:v>
+                  <c:v>1.04706E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.7910199999999999E-2</c:v>
+                  <c:v>1.0315599999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.6394500000000004E-2</c:v>
+                  <c:v>1.0322599999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.2813399999999995E-2</c:v>
+                  <c:v>1.03032E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.9815499999999998E-2</c:v>
+                  <c:v>1.04753E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.5231699999999994E-2</c:v>
+                  <c:v>1.0429900000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.3745E-2</c:v>
+                  <c:v>1.1920200000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.7964200000000006E-2</c:v>
+                  <c:v>1.18464E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.7941599999999995E-2</c:v>
+                  <c:v>1.17447E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8.8050600000000007E-2</c:v>
+                  <c:v>1.19483E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8.8639800000000005E-2</c:v>
+                  <c:v>1.1814399999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8.4870100000000004E-2</c:v>
+                  <c:v>1.1665999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8.4079699999999993E-2</c:v>
+                  <c:v>1.19343E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.57039E-2</c:v>
+                  <c:v>1.1879300000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>8.9658000000000002E-2</c:v>
+                  <c:v>1.50881E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>8.46272E-2</c:v>
+                  <c:v>1.5046500000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>8.6951100000000003E-2</c:v>
+                  <c:v>1.49859E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>9.6950499999999995E-2</c:v>
+                  <c:v>1.55519E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>8.6475899999999994E-2</c:v>
+                  <c:v>1.5197799999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>9.0625899999999995E-2</c:v>
+                  <c:v>1.5337699999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>8.9929700000000001E-2</c:v>
+                  <c:v>1.54296E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>9.4032000000000004E-2</c:v>
+                  <c:v>1.56183E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>9.8271999999999998E-2</c:v>
+                  <c:v>1.6638300000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>9.0007199999999996E-2</c:v>
+                  <c:v>1.5857300000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>9.5967700000000003E-2</c:v>
+                  <c:v>1.5835100000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>9.7134700000000004E-2</c:v>
+                  <c:v>1.5654399999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>9.4233800000000006E-2</c:v>
+                  <c:v>1.6339699999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>8.89683E-2</c:v>
+                  <c:v>1.6354400000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>8.7052500000000005E-2</c:v>
+                  <c:v>1.5942999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>9.34387E-2</c:v>
+                  <c:v>1.6038899999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>9.2886899999999994E-2</c:v>
+                  <c:v>1.7170399999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>9.71051E-2</c:v>
+                  <c:v>1.7579999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>8.9285000000000003E-2</c:v>
+                  <c:v>1.7490100000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>8.8979199999999994E-2</c:v>
+                  <c:v>1.7598800000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>9.2426700000000001E-2</c:v>
+                  <c:v>1.6926199999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>8.8617399999999999E-2</c:v>
+                  <c:v>1.7889499999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>9.5069799999999996E-2</c:v>
+                  <c:v>1.6784299999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>9.7716200000000003E-2</c:v>
+                  <c:v>1.7399000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2530,196 +2530,196 @@
                 <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>7.6530699999999993E-2</c:v>
+                  <c:v>3.7511200000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.8834600000000005E-2</c:v>
+                  <c:v>6.1809999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.97678E-2</c:v>
+                  <c:v>7.6447800000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.3866700000000002E-2</c:v>
+                  <c:v>9.6756399999999992E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.4210499999999994E-2</c:v>
+                  <c:v>1.1365399999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.73361E-2</c:v>
+                  <c:v>1.27919E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.8504700000000006E-2</c:v>
+                  <c:v>1.4980500000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.8849499999999998E-2</c:v>
+                  <c:v>1.6268500000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0434500000000001E-2</c:v>
+                  <c:v>1.8113299999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.2064300000000002E-2</c:v>
+                  <c:v>1.96635E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.5041200000000006E-2</c:v>
+                  <c:v>2.15184E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.2357700000000001E-2</c:v>
+                  <c:v>2.3195500000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.6017199999999997E-2</c:v>
+                  <c:v>2.5023500000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.5315700000000003E-2</c:v>
+                  <c:v>2.6227199999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.6999299999999997E-2</c:v>
+                  <c:v>2.7888699999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.7803399999999999E-2</c:v>
+                  <c:v>3.0308600000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.100894</c:v>
+                  <c:v>3.1519600000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.100804</c:v>
+                  <c:v>3.2960099999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.103829</c:v>
+                  <c:v>3.44152E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.10687000000000001</c:v>
+                  <c:v>3.7281599999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.106568</c:v>
+                  <c:v>3.8289400000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.10963299999999999</c:v>
+                  <c:v>3.9527800000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.11289399999999999</c:v>
+                  <c:v>4.1395099999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.118561</c:v>
+                  <c:v>4.3271999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.12008000000000001</c:v>
+                  <c:v>4.4505599999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.123205</c:v>
+                  <c:v>4.6390199999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.11931899999999999</c:v>
+                  <c:v>4.8120099999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.119384</c:v>
+                  <c:v>4.8958500000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.12559400000000001</c:v>
+                  <c:v>5.1220700000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.126529</c:v>
+                  <c:v>5.2711599999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.12783</c:v>
+                  <c:v>5.4754200000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.13139200000000001</c:v>
+                  <c:v>5.5885499999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.13364599999999999</c:v>
+                  <c:v>5.7308600000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.135273</c:v>
+                  <c:v>5.9909999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.13714599999999999</c:v>
+                  <c:v>6.1617999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.140763</c:v>
+                  <c:v>6.4434400000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.140713</c:v>
+                  <c:v>6.4903100000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.14408599999999999</c:v>
+                  <c:v>6.6169000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.143986</c:v>
+                  <c:v>6.7979300000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.147588</c:v>
+                  <c:v>6.9697300000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.14876500000000001</c:v>
+                  <c:v>7.2808700000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.15126100000000001</c:v>
+                  <c:v>7.3653499999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.15268300000000001</c:v>
+                  <c:v>7.4961399999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.15543100000000001</c:v>
+                  <c:v>7.6844899999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.15704299999999999</c:v>
+                  <c:v>7.9095899999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.15632599999999999</c:v>
+                  <c:v>8.0191399999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.15734100000000001</c:v>
+                  <c:v>8.2300399999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.161546</c:v>
+                  <c:v>8.2978499999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.16409099999999999</c:v>
+                  <c:v>8.4682999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.163739</c:v>
+                  <c:v>8.6538400000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.165299</c:v>
+                  <c:v>8.8115200000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.16725400000000001</c:v>
+                  <c:v>9.0050599999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.16980000000000001</c:v>
+                  <c:v>9.1257000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.17197399999999999</c:v>
+                  <c:v>9.4047000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.174208</c:v>
+                  <c:v>9.6853499999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.177369</c:v>
+                  <c:v>9.89588E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.17996200000000001</c:v>
+                  <c:v>9.8788100000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.17965700000000001</c:v>
+                  <c:v>0.100979</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.17827100000000001</c:v>
+                  <c:v>0.10263700000000001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.18441399999999999</c:v>
+                  <c:v>0.104059</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.18393399999999999</c:v>
+                  <c:v>0.105379</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.186363</c:v>
+                  <c:v>0.10815900000000001</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.18931200000000001</c:v>
+                  <c:v>0.109291</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.19272900000000001</c:v>
+                  <c:v>0.11059099999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3304,196 +3304,196 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>7.1276500000000007E-2</c:v>
+                  <c:v>3.9643400000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.5664400000000007E-2</c:v>
+                  <c:v>5.5906999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.6694100000000001E-2</c:v>
+                  <c:v>7.5393999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.6668200000000001E-2</c:v>
+                  <c:v>8.8643400000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.6044399999999993E-2</c:v>
+                  <c:v>1.02591E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.5398300000000001E-2</c:v>
+                  <c:v>1.2383099999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.4087699999999996E-2</c:v>
+                  <c:v>1.3592099999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.05424E-2</c:v>
+                  <c:v>1.5039500000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.5359699999999997E-2</c:v>
+                  <c:v>1.6926400000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.1753399999999999E-2</c:v>
+                  <c:v>1.8840599999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.1887399999999994E-2</c:v>
+                  <c:v>2.0801400000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.5108499999999999E-2</c:v>
+                  <c:v>2.1821500000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.0847499999999998E-2</c:v>
+                  <c:v>2.35322E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.02443E-2</c:v>
+                  <c:v>2.4936799999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.10001</c:v>
+                  <c:v>2.6639400000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.10231800000000001</c:v>
+                  <c:v>2.8549700000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.10516200000000001</c:v>
+                  <c:v>3.0092799999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.104783</c:v>
+                  <c:v>3.4164100000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.10322199999999999</c:v>
+                  <c:v>3.3132099999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.111275</c:v>
+                  <c:v>3.5485299999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.111287</c:v>
+                  <c:v>3.64914E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.12511800000000001</c:v>
+                  <c:v>3.8592899999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.11309900000000001</c:v>
+                  <c:v>4.0434900000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.11677999999999999</c:v>
+                  <c:v>4.1734100000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.11366999999999999</c:v>
+                  <c:v>4.2613199999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.117858</c:v>
+                  <c:v>4.6889100000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.12407600000000001</c:v>
+                  <c:v>4.5949799999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.11799</c:v>
+                  <c:v>4.7994700000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.12751799999999999</c:v>
+                  <c:v>4.9243799999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.124442</c:v>
+                  <c:v>5.14726E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.12692100000000001</c:v>
+                  <c:v>5.24045E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.130831</c:v>
+                  <c:v>5.4180100000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.13602600000000001</c:v>
+                  <c:v>5.6090000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.138872</c:v>
+                  <c:v>5.7534099999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.137517</c:v>
+                  <c:v>6.2129499999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.133739</c:v>
+                  <c:v>6.3237100000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.13667599999999999</c:v>
+                  <c:v>6.4125600000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.142292</c:v>
+                  <c:v>6.51085E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.141149</c:v>
+                  <c:v>6.5847100000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.144536</c:v>
+                  <c:v>6.8526599999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.14086199999999999</c:v>
+                  <c:v>7.0565000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.146726</c:v>
+                  <c:v>7.0871100000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.150037</c:v>
+                  <c:v>7.2727700000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.15006800000000001</c:v>
+                  <c:v>7.4516100000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.147203</c:v>
+                  <c:v>7.7898700000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.158274</c:v>
+                  <c:v>7.8102000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.156114</c:v>
+                  <c:v>8.0305399999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.15749299999999999</c:v>
+                  <c:v>8.2472199999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.16587199999999999</c:v>
+                  <c:v>8.3105700000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.162684</c:v>
+                  <c:v>8.5324399999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.164298</c:v>
+                  <c:v>8.7184899999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.17172599999999999</c:v>
+                  <c:v>8.8072800000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.16994999999999999</c:v>
+                  <c:v>9.0371499999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.16883300000000001</c:v>
+                  <c:v>9.1752200000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.18162600000000001</c:v>
+                  <c:v>9.3837799999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.173426</c:v>
+                  <c:v>9.7517999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.17341400000000001</c:v>
+                  <c:v>9.9225099999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.18368100000000001</c:v>
+                  <c:v>9.9303699999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.18393399999999999</c:v>
+                  <c:v>0.102143</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.18154200000000001</c:v>
+                  <c:v>0.102697</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.187028</c:v>
+                  <c:v>0.105084</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.184254</c:v>
+                  <c:v>0.106153</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.18665999999999999</c:v>
+                  <c:v>0.10921400000000001</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.19152</c:v>
+                  <c:v>0.10997899999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4078,196 +4078,196 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>7.6923000000000005E-2</c:v>
+                  <c:v>4.9818400000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.9585599999999997E-2</c:v>
+                  <c:v>5.0137000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.9001299999999997E-2</c:v>
+                  <c:v>4.98088E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.04375E-2</c:v>
+                  <c:v>4.73596E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.9293199999999994E-2</c:v>
+                  <c:v>6.8132000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.4969400000000005E-2</c:v>
+                  <c:v>6.5316000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.0856399999999995E-2</c:v>
+                  <c:v>7.0096000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0424200000000001E-2</c:v>
+                  <c:v>6.5008599999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0052499999999999E-2</c:v>
+                  <c:v>8.8846800000000007E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.5283899999999996E-2</c:v>
+                  <c:v>8.7516E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.0586099999999994E-2</c:v>
+                  <c:v>8.7163199999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.2430199999999995E-2</c:v>
+                  <c:v>8.5166600000000005E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.6287699999999995E-2</c:v>
+                  <c:v>1.07703E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.5256899999999997E-2</c:v>
+                  <c:v>1.0505499999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.2989999999999994E-2</c:v>
+                  <c:v>1.0680800000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.9499399999999998E-2</c:v>
+                  <c:v>1.0654E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.1064200000000003E-2</c:v>
+                  <c:v>1.2522E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.8785299999999998E-2</c:v>
+                  <c:v>1.25831E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.99982E-2</c:v>
+                  <c:v>1.26301E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.5775299999999999E-2</c:v>
+                  <c:v>1.2852199999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.6327399999999999E-2</c:v>
+                  <c:v>1.4343399999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.7421600000000002E-2</c:v>
+                  <c:v>1.43509E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.47797E-2</c:v>
+                  <c:v>1.44814E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.2127000000000001E-2</c:v>
+                  <c:v>1.40581E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.7510099999999993E-2</c:v>
+                  <c:v>1.6307200000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.1848700000000005E-2</c:v>
+                  <c:v>1.6301599999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.9755299999999996E-2</c:v>
+                  <c:v>1.64166E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.0635099999999996E-2</c:v>
+                  <c:v>1.5909900000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.3407900000000002E-2</c:v>
+                  <c:v>1.82708E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.6547200000000005E-2</c:v>
+                  <c:v>1.8243499999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.5419800000000004E-2</c:v>
+                  <c:v>1.8048100000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9.4814599999999999E-2</c:v>
+                  <c:v>1.93195E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9.3882699999999999E-2</c:v>
+                  <c:v>1.9872999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.7806300000000004E-2</c:v>
+                  <c:v>1.9938000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9.0534600000000007E-2</c:v>
+                  <c:v>2.0208799999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9.5679E-2</c:v>
+                  <c:v>2.02443E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9.5458799999999996E-2</c:v>
+                  <c:v>2.17597E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9.3280500000000002E-2</c:v>
+                  <c:v>2.1970400000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9.5606300000000005E-2</c:v>
+                  <c:v>2.1965499999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9.0996400000000005E-2</c:v>
+                  <c:v>2.1690000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.4139399999999998E-2</c:v>
+                  <c:v>2.34357E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9.7802399999999998E-2</c:v>
+                  <c:v>2.3513300000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>9.7899899999999998E-2</c:v>
+                  <c:v>2.39463E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.101021</c:v>
+                  <c:v>2.34399E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>9.4003500000000004E-2</c:v>
+                  <c:v>2.5637E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.10128</c:v>
+                  <c:v>2.54676E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>9.2905299999999996E-2</c:v>
+                  <c:v>2.5474199999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.10145700000000001</c:v>
+                  <c:v>2.4956099999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>9.5094899999999996E-2</c:v>
+                  <c:v>2.7125699999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.101558</c:v>
+                  <c:v>2.7869999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.101579</c:v>
+                  <c:v>2.7294800000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.102883</c:v>
+                  <c:v>2.7286100000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.106518</c:v>
+                  <c:v>2.9109900000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.105547</c:v>
+                  <c:v>2.9553699999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.106173</c:v>
+                  <c:v>2.9448100000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.101468</c:v>
+                  <c:v>2.88478E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.10287200000000001</c:v>
+                  <c:v>3.07552E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.110565</c:v>
+                  <c:v>3.05659E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>9.7630999999999996E-2</c:v>
+                  <c:v>3.0565100000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.105558</c:v>
+                  <c:v>3.02025E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.10581699999999999</c:v>
+                  <c:v>3.2562000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.111341</c:v>
+                  <c:v>3.2096800000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.10578600000000001</c:v>
+                  <c:v>3.2319500000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.10395799999999999</c:v>
+                  <c:v>3.2871999999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4852,196 +4852,196 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>7.2365299999999994E-2</c:v>
+                  <c:v>4.56172E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.1376100000000007E-2</c:v>
+                  <c:v>4.6907600000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0746399999999996E-2</c:v>
+                  <c:v>4.4930999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.3504700000000001E-2</c:v>
+                  <c:v>4.4927200000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.6294299999999995E-2</c:v>
+                  <c:v>4.7302799999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.6134800000000002E-2</c:v>
+                  <c:v>4.5865599999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.0434400000000003E-2</c:v>
+                  <c:v>4.47556E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.7915399999999996E-2</c:v>
+                  <c:v>4.9040400000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.3036400000000001E-2</c:v>
+                  <c:v>7.9606599999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.4913099999999996E-2</c:v>
+                  <c:v>8.1644999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.9217599999999999E-2</c:v>
+                  <c:v>8.2967200000000005E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.5468400000000005E-2</c:v>
+                  <c:v>8.2085200000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.0559699999999998E-2</c:v>
+                  <c:v>8.17646E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.3868200000000004E-2</c:v>
+                  <c:v>8.1017999999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.0931100000000006E-2</c:v>
+                  <c:v>8.0513400000000006E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.1375100000000006E-2</c:v>
+                  <c:v>8.0078800000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.1980199999999994E-2</c:v>
+                  <c:v>9.0514399999999991E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.8135199999999997E-2</c:v>
+                  <c:v>9.09832E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.8900699999999999E-2</c:v>
+                  <c:v>9.0896599999999994E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.5165199999999996E-2</c:v>
+                  <c:v>8.8032600000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.5745799999999997E-2</c:v>
+                  <c:v>8.5980999999999991E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.5037399999999999E-2</c:v>
+                  <c:v>9.7824399999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.2438300000000006E-2</c:v>
+                  <c:v>9.0443199999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.0349199999999996E-2</c:v>
+                  <c:v>8.7769200000000006E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.0688700000000002E-2</c:v>
+                  <c:v>1.0024999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.0025399999999997E-2</c:v>
+                  <c:v>1.0347800000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.3368100000000001E-2</c:v>
+                  <c:v>1.04706E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.7910199999999999E-2</c:v>
+                  <c:v>1.0315599999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.6394500000000004E-2</c:v>
+                  <c:v>1.0322599999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.2813399999999995E-2</c:v>
+                  <c:v>1.03032E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.9815499999999998E-2</c:v>
+                  <c:v>1.04753E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.5231699999999994E-2</c:v>
+                  <c:v>1.0429900000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.3745E-2</c:v>
+                  <c:v>1.1920200000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.7964200000000006E-2</c:v>
+                  <c:v>1.18464E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.7941599999999995E-2</c:v>
+                  <c:v>1.17447E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8.8050600000000007E-2</c:v>
+                  <c:v>1.19483E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8.8639800000000005E-2</c:v>
+                  <c:v>1.1814399999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8.4870100000000004E-2</c:v>
+                  <c:v>1.1665999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8.4079699999999993E-2</c:v>
+                  <c:v>1.19343E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.57039E-2</c:v>
+                  <c:v>1.1879300000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>8.9658000000000002E-2</c:v>
+                  <c:v>1.50881E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>8.46272E-2</c:v>
+                  <c:v>1.5046500000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>8.6951100000000003E-2</c:v>
+                  <c:v>1.49859E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>9.6950499999999995E-2</c:v>
+                  <c:v>1.55519E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>8.6475899999999994E-2</c:v>
+                  <c:v>1.5197799999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>9.0625899999999995E-2</c:v>
+                  <c:v>1.5337699999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>8.9929700000000001E-2</c:v>
+                  <c:v>1.54296E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>9.4032000000000004E-2</c:v>
+                  <c:v>1.56183E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>9.8271999999999998E-2</c:v>
+                  <c:v>1.6638300000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>9.0007199999999996E-2</c:v>
+                  <c:v>1.5857300000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>9.5967700000000003E-2</c:v>
+                  <c:v>1.5835100000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>9.7134700000000004E-2</c:v>
+                  <c:v>1.5654399999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>9.4233800000000006E-2</c:v>
+                  <c:v>1.6339699999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>8.89683E-2</c:v>
+                  <c:v>1.6354400000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>8.7052500000000005E-2</c:v>
+                  <c:v>1.5942999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>9.34387E-2</c:v>
+                  <c:v>1.6038899999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>9.2886899999999994E-2</c:v>
+                  <c:v>1.7170399999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>9.71051E-2</c:v>
+                  <c:v>1.7579999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>8.9285000000000003E-2</c:v>
+                  <c:v>1.7490100000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>8.8979199999999994E-2</c:v>
+                  <c:v>1.7598800000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>9.2426700000000001E-2</c:v>
+                  <c:v>1.6926199999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>8.8617399999999999E-2</c:v>
+                  <c:v>1.7889499999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>9.5069799999999996E-2</c:v>
+                  <c:v>1.6784299999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>9.7716200000000003E-2</c:v>
+                  <c:v>1.7399000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8612,8 +8612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DFEB72-D8DD-4DB1-8BD7-1FC9C8947D0A}">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8645,16 +8645,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>7.6530699999999993E-2</v>
+        <v>3.7511200000000001E-3</v>
       </c>
       <c r="C2">
-        <v>7.1276500000000007E-2</v>
+        <v>3.9643400000000002E-3</v>
       </c>
       <c r="D2">
-        <v>7.6923000000000005E-2</v>
+        <v>4.9818400000000004E-3</v>
       </c>
       <c r="E2">
-        <v>7.2365299999999994E-2</v>
+        <v>4.56172E-3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -8662,16 +8662,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>7.8834600000000005E-2</v>
+        <v>6.1809999999999999E-3</v>
       </c>
       <c r="C3">
-        <v>7.5664400000000007E-2</v>
+        <v>5.5906999999999997E-3</v>
       </c>
       <c r="D3">
-        <v>6.9585599999999997E-2</v>
+        <v>5.0137000000000003E-3</v>
       </c>
       <c r="E3">
-        <v>8.1376100000000007E-2</v>
+        <v>4.6907600000000004E-3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -8679,16 +8679,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>7.97678E-2</v>
+        <v>7.6447800000000003E-3</v>
       </c>
       <c r="C4">
-        <v>7.6694100000000001E-2</v>
+        <v>7.5393999999999999E-3</v>
       </c>
       <c r="D4">
-        <v>7.9001299999999997E-2</v>
+        <v>4.98088E-3</v>
       </c>
       <c r="E4">
-        <v>8.0746399999999996E-2</v>
+        <v>4.4930999999999999E-3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -8696,16 +8696,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>8.3866700000000002E-2</v>
+        <v>9.6756399999999992E-3</v>
       </c>
       <c r="C5">
-        <v>8.6668200000000001E-2</v>
+        <v>8.8643400000000001E-3</v>
       </c>
       <c r="D5">
-        <v>7.04375E-2</v>
+        <v>4.73596E-3</v>
       </c>
       <c r="E5">
-        <v>8.3504700000000001E-2</v>
+        <v>4.4927200000000004E-3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -8713,16 +8713,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>8.4210499999999994E-2</v>
+        <v>1.1365399999999999E-2</v>
       </c>
       <c r="C6">
-        <v>8.6044399999999993E-2</v>
+        <v>1.02591E-2</v>
       </c>
       <c r="D6">
-        <v>7.9293199999999994E-2</v>
+        <v>6.8132000000000002E-3</v>
       </c>
       <c r="E6">
-        <v>7.6294299999999995E-2</v>
+        <v>4.7302799999999999E-3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -8730,16 +8730,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>8.73361E-2</v>
+        <v>1.27919E-2</v>
       </c>
       <c r="C7">
-        <v>7.5398300000000001E-2</v>
+        <v>1.2383099999999999E-2</v>
       </c>
       <c r="D7">
-        <v>7.4969400000000005E-2</v>
+        <v>6.5316000000000003E-3</v>
       </c>
       <c r="E7">
-        <v>7.6134800000000002E-2</v>
+        <v>4.5865599999999999E-3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -8747,16 +8747,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>8.8504700000000006E-2</v>
+        <v>1.4980500000000001E-2</v>
       </c>
       <c r="C8">
-        <v>9.4087699999999996E-2</v>
+        <v>1.3592099999999999E-2</v>
       </c>
       <c r="D8">
-        <v>8.0856399999999995E-2</v>
+        <v>7.0096000000000004E-3</v>
       </c>
       <c r="E8">
-        <v>8.0434400000000003E-2</v>
+        <v>4.47556E-3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -8764,16 +8764,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>8.8849499999999998E-2</v>
+        <v>1.6268500000000002E-2</v>
       </c>
       <c r="C9">
-        <v>8.05424E-2</v>
+        <v>1.5039500000000001E-2</v>
       </c>
       <c r="D9">
-        <v>8.0424200000000001E-2</v>
+        <v>6.5008599999999998E-3</v>
       </c>
       <c r="E9">
-        <v>7.7915399999999996E-2</v>
+        <v>4.9040400000000001E-3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -8781,16 +8781,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>9.0434500000000001E-2</v>
+        <v>1.8113299999999999E-2</v>
       </c>
       <c r="C10">
-        <v>8.5359699999999997E-2</v>
+        <v>1.6926400000000001E-2</v>
       </c>
       <c r="D10">
-        <v>8.0052499999999999E-2</v>
+        <v>8.8846800000000007E-3</v>
       </c>
       <c r="E10">
-        <v>7.3036400000000001E-2</v>
+        <v>7.9606599999999996E-3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -8798,16 +8798,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>9.2064300000000002E-2</v>
+        <v>1.96635E-2</v>
       </c>
       <c r="C11">
-        <v>9.1753399999999999E-2</v>
+        <v>1.8840599999999999E-2</v>
       </c>
       <c r="D11">
-        <v>8.5283899999999996E-2</v>
+        <v>8.7516E-3</v>
       </c>
       <c r="E11">
-        <v>7.4913099999999996E-2</v>
+        <v>8.1644999999999999E-3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -8815,16 +8815,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>9.5041200000000006E-2</v>
+        <v>2.15184E-2</v>
       </c>
       <c r="C12">
-        <v>9.1887399999999994E-2</v>
+        <v>2.0801400000000001E-2</v>
       </c>
       <c r="D12">
-        <v>8.0586099999999994E-2</v>
+        <v>8.7163199999999996E-3</v>
       </c>
       <c r="E12">
-        <v>7.9217599999999999E-2</v>
+        <v>8.2967200000000005E-3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -8832,16 +8832,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>9.2357700000000001E-2</v>
+        <v>2.3195500000000001E-2</v>
       </c>
       <c r="C13">
-        <v>9.5108499999999999E-2</v>
+        <v>2.1821500000000001E-2</v>
       </c>
       <c r="D13">
-        <v>8.2430199999999995E-2</v>
+        <v>8.5166600000000005E-3</v>
       </c>
       <c r="E13">
-        <v>7.5468400000000005E-2</v>
+        <v>8.2085200000000004E-3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -8849,16 +8849,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>9.6017199999999997E-2</v>
+        <v>2.5023500000000001E-2</v>
       </c>
       <c r="C14">
-        <v>9.0847499999999998E-2</v>
+        <v>2.35322E-2</v>
       </c>
       <c r="D14">
-        <v>8.6287699999999995E-2</v>
+        <v>1.07703E-2</v>
       </c>
       <c r="E14">
-        <v>8.0559699999999998E-2</v>
+        <v>8.17646E-3</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -8866,16 +8866,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>9.5315700000000003E-2</v>
+        <v>2.6227199999999999E-2</v>
       </c>
       <c r="C15">
-        <v>9.02443E-2</v>
+        <v>2.4936799999999999E-2</v>
       </c>
       <c r="D15">
-        <v>8.5256899999999997E-2</v>
+        <v>1.0505499999999999E-2</v>
       </c>
       <c r="E15">
-        <v>8.3868200000000004E-2</v>
+        <v>8.1017999999999993E-3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -8883,16 +8883,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>9.6999299999999997E-2</v>
+        <v>2.7888699999999999E-2</v>
       </c>
       <c r="C16">
-        <v>0.10001</v>
+        <v>2.6639400000000001E-2</v>
       </c>
       <c r="D16">
-        <v>8.2989999999999994E-2</v>
+        <v>1.0680800000000001E-2</v>
       </c>
       <c r="E16">
-        <v>8.0931100000000006E-2</v>
+        <v>8.0513400000000006E-3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -8900,16 +8900,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>9.7803399999999999E-2</v>
+        <v>3.0308600000000002E-2</v>
       </c>
       <c r="C17">
-        <v>0.10231800000000001</v>
+        <v>2.8549700000000001E-2</v>
       </c>
       <c r="D17">
-        <v>7.9499399999999998E-2</v>
+        <v>1.0654E-2</v>
       </c>
       <c r="E17">
-        <v>8.1375100000000006E-2</v>
+        <v>8.0078800000000002E-3</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -8917,16 +8917,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>0.100894</v>
+        <v>3.1519600000000002E-2</v>
       </c>
       <c r="C18">
-        <v>0.10516200000000001</v>
+        <v>3.0092799999999999E-2</v>
       </c>
       <c r="D18">
-        <v>8.1064200000000003E-2</v>
+        <v>1.2522E-2</v>
       </c>
       <c r="E18">
-        <v>7.1980199999999994E-2</v>
+        <v>9.0514399999999991E-3</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -8934,16 +8934,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>0.100804</v>
+        <v>3.2960099999999999E-2</v>
       </c>
       <c r="C19">
-        <v>0.104783</v>
+        <v>3.4164100000000003E-2</v>
       </c>
       <c r="D19">
-        <v>8.8785299999999998E-2</v>
+        <v>1.25831E-2</v>
       </c>
       <c r="E19">
-        <v>8.8135199999999997E-2</v>
+        <v>9.09832E-3</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -8951,16 +8951,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>0.103829</v>
+        <v>3.44152E-2</v>
       </c>
       <c r="C20">
-        <v>0.10322199999999999</v>
+        <v>3.3132099999999998E-2</v>
       </c>
       <c r="D20">
-        <v>8.99982E-2</v>
+        <v>1.26301E-2</v>
       </c>
       <c r="E20">
-        <v>8.8900699999999999E-2</v>
+        <v>9.0896599999999994E-3</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -8968,16 +8968,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>0.10687000000000001</v>
+        <v>3.7281599999999998E-2</v>
       </c>
       <c r="C21">
-        <v>0.111275</v>
+        <v>3.5485299999999997E-2</v>
       </c>
       <c r="D21">
-        <v>8.5775299999999999E-2</v>
+        <v>1.2852199999999999E-2</v>
       </c>
       <c r="E21">
-        <v>8.5165199999999996E-2</v>
+        <v>8.8032600000000003E-3</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -8985,16 +8985,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>0.106568</v>
+        <v>3.8289400000000001E-2</v>
       </c>
       <c r="C22">
-        <v>0.111287</v>
+        <v>3.64914E-2</v>
       </c>
       <c r="D22">
-        <v>8.6327399999999999E-2</v>
+        <v>1.4343399999999999E-2</v>
       </c>
       <c r="E22">
-        <v>8.5745799999999997E-2</v>
+        <v>8.5980999999999991E-3</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -9002,16 +9002,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>0.10963299999999999</v>
+        <v>3.9527800000000002E-2</v>
       </c>
       <c r="C23">
-        <v>0.12511800000000001</v>
+        <v>3.8592899999999999E-2</v>
       </c>
       <c r="D23">
-        <v>8.7421600000000002E-2</v>
+        <v>1.43509E-2</v>
       </c>
       <c r="E23">
-        <v>8.5037399999999999E-2</v>
+        <v>9.7824399999999999E-3</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -9019,16 +9019,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>0.11289399999999999</v>
+        <v>4.1395099999999997E-2</v>
       </c>
       <c r="C24">
-        <v>0.11309900000000001</v>
+        <v>4.0434900000000003E-2</v>
       </c>
       <c r="D24">
-        <v>8.47797E-2</v>
+        <v>1.44814E-2</v>
       </c>
       <c r="E24">
-        <v>8.2438300000000006E-2</v>
+        <v>9.0443199999999998E-3</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -9036,16 +9036,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>0.118561</v>
+        <v>4.3271999999999998E-2</v>
       </c>
       <c r="C25">
-        <v>0.11677999999999999</v>
+        <v>4.1734100000000003E-2</v>
       </c>
       <c r="D25">
-        <v>9.2127000000000001E-2</v>
+        <v>1.40581E-2</v>
       </c>
       <c r="E25">
-        <v>8.0349199999999996E-2</v>
+        <v>8.7769200000000006E-3</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -9053,16 +9053,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>0.12008000000000001</v>
+        <v>4.4505599999999999E-2</v>
       </c>
       <c r="C26">
-        <v>0.11366999999999999</v>
+        <v>4.2613199999999997E-2</v>
       </c>
       <c r="D26">
-        <v>8.7510099999999993E-2</v>
+        <v>1.6307200000000001E-2</v>
       </c>
       <c r="E26">
-        <v>8.0688700000000002E-2</v>
+        <v>1.0024999999999999E-2</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -9070,16 +9070,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>0.123205</v>
+        <v>4.6390199999999999E-2</v>
       </c>
       <c r="C27">
-        <v>0.117858</v>
+        <v>4.6889100000000003E-2</v>
       </c>
       <c r="D27">
-        <v>9.1848700000000005E-2</v>
+        <v>1.6301599999999999E-2</v>
       </c>
       <c r="E27">
-        <v>8.0025399999999997E-2</v>
+        <v>1.0347800000000001E-2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -9087,16 +9087,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>0.11931899999999999</v>
+        <v>4.8120099999999999E-2</v>
       </c>
       <c r="C28">
-        <v>0.12407600000000001</v>
+        <v>4.5949799999999999E-2</v>
       </c>
       <c r="D28">
-        <v>8.9755299999999996E-2</v>
+        <v>1.64166E-2</v>
       </c>
       <c r="E28">
-        <v>8.3368100000000001E-2</v>
+        <v>1.04706E-2</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -9104,16 +9104,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>0.119384</v>
+        <v>4.8958500000000002E-2</v>
       </c>
       <c r="C29">
-        <v>0.11799</v>
+        <v>4.7994700000000001E-2</v>
       </c>
       <c r="D29">
-        <v>9.0635099999999996E-2</v>
+        <v>1.5909900000000001E-2</v>
       </c>
       <c r="E29">
-        <v>7.7910199999999999E-2</v>
+        <v>1.0315599999999999E-2</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -9121,16 +9121,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>0.12559400000000001</v>
+        <v>5.1220700000000001E-2</v>
       </c>
       <c r="C30">
-        <v>0.12751799999999999</v>
+        <v>4.9243799999999997E-2</v>
       </c>
       <c r="D30">
-        <v>9.3407900000000002E-2</v>
+        <v>1.82708E-2</v>
       </c>
       <c r="E30">
-        <v>7.6394500000000004E-2</v>
+        <v>1.0322599999999999E-2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -9138,16 +9138,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>0.126529</v>
+        <v>5.2711599999999997E-2</v>
       </c>
       <c r="C31">
-        <v>0.124442</v>
+        <v>5.14726E-2</v>
       </c>
       <c r="D31">
-        <v>8.6547200000000005E-2</v>
+        <v>1.8243499999999999E-2</v>
       </c>
       <c r="E31">
-        <v>8.2813399999999995E-2</v>
+        <v>1.03032E-2</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -9155,16 +9155,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>0.12783</v>
+        <v>5.4754200000000003E-2</v>
       </c>
       <c r="C32">
-        <v>0.12692100000000001</v>
+        <v>5.24045E-2</v>
       </c>
       <c r="D32">
-        <v>8.5419800000000004E-2</v>
+        <v>1.8048100000000001E-2</v>
       </c>
       <c r="E32">
-        <v>7.9815499999999998E-2</v>
+        <v>1.04753E-2</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -9172,16 +9172,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>0.13139200000000001</v>
+        <v>5.5885499999999998E-2</v>
       </c>
       <c r="C33">
-        <v>0.130831</v>
+        <v>5.4180100000000002E-2</v>
       </c>
       <c r="D33">
-        <v>9.4814599999999999E-2</v>
+        <v>1.93195E-2</v>
       </c>
       <c r="E33">
-        <v>8.5231699999999994E-2</v>
+        <v>1.0429900000000001E-2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -9189,16 +9189,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>0.13364599999999999</v>
+        <v>5.7308600000000001E-2</v>
       </c>
       <c r="C34">
-        <v>0.13602600000000001</v>
+        <v>5.6090000000000001E-2</v>
       </c>
       <c r="D34">
-        <v>9.3882699999999999E-2</v>
+        <v>1.9872999999999998E-2</v>
       </c>
       <c r="E34">
-        <v>8.3745E-2</v>
+        <v>1.1920200000000001E-2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -9206,16 +9206,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>0.135273</v>
+        <v>5.9909999999999998E-2</v>
       </c>
       <c r="C35">
-        <v>0.138872</v>
+        <v>5.7534099999999998E-2</v>
       </c>
       <c r="D35">
-        <v>8.7806300000000004E-2</v>
+        <v>1.9938000000000001E-2</v>
       </c>
       <c r="E35">
-        <v>8.7964200000000006E-2</v>
+        <v>1.18464E-2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -9223,16 +9223,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>0.13714599999999999</v>
+        <v>6.1617999999999999E-2</v>
       </c>
       <c r="C36">
-        <v>0.137517</v>
+        <v>6.2129499999999997E-2</v>
       </c>
       <c r="D36">
-        <v>9.0534600000000007E-2</v>
+        <v>2.0208799999999999E-2</v>
       </c>
       <c r="E36">
-        <v>8.7941599999999995E-2</v>
+        <v>1.17447E-2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -9240,16 +9240,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>0.140763</v>
+        <v>6.4434400000000003E-2</v>
       </c>
       <c r="C37">
-        <v>0.133739</v>
+        <v>6.3237100000000004E-2</v>
       </c>
       <c r="D37">
-        <v>9.5679E-2</v>
+        <v>2.02443E-2</v>
       </c>
       <c r="E37">
-        <v>8.8050600000000007E-2</v>
+        <v>1.19483E-2</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -9257,16 +9257,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>0.140713</v>
+        <v>6.4903100000000005E-2</v>
       </c>
       <c r="C38">
-        <v>0.13667599999999999</v>
+        <v>6.4125600000000005E-2</v>
       </c>
       <c r="D38">
-        <v>9.5458799999999996E-2</v>
+        <v>2.17597E-2</v>
       </c>
       <c r="E38">
-        <v>8.8639800000000005E-2</v>
+        <v>1.1814399999999999E-2</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -9274,16 +9274,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>0.14408599999999999</v>
+        <v>6.6169000000000006E-2</v>
       </c>
       <c r="C39">
-        <v>0.142292</v>
+        <v>6.51085E-2</v>
       </c>
       <c r="D39">
-        <v>9.3280500000000002E-2</v>
+        <v>2.1970400000000001E-2</v>
       </c>
       <c r="E39">
-        <v>8.4870100000000004E-2</v>
+        <v>1.1665999999999999E-2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -9291,16 +9291,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>0.143986</v>
+        <v>6.7979300000000006E-2</v>
       </c>
       <c r="C40">
-        <v>0.141149</v>
+        <v>6.5847100000000006E-2</v>
       </c>
       <c r="D40">
-        <v>9.5606300000000005E-2</v>
+        <v>2.1965499999999999E-2</v>
       </c>
       <c r="E40">
-        <v>8.4079699999999993E-2</v>
+        <v>1.19343E-2</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -9308,16 +9308,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>0.147588</v>
+        <v>6.9697300000000004E-2</v>
       </c>
       <c r="C41">
-        <v>0.144536</v>
+        <v>6.8526599999999993E-2</v>
       </c>
       <c r="D41">
-        <v>9.0996400000000005E-2</v>
+        <v>2.1690000000000001E-2</v>
       </c>
       <c r="E41">
-        <v>8.57039E-2</v>
+        <v>1.1879300000000001E-2</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -9325,16 +9325,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>0.14876500000000001</v>
+        <v>7.2808700000000004E-2</v>
       </c>
       <c r="C42">
-        <v>0.14086199999999999</v>
+        <v>7.0565000000000003E-2</v>
       </c>
       <c r="D42">
-        <v>9.4139399999999998E-2</v>
+        <v>2.34357E-2</v>
       </c>
       <c r="E42">
-        <v>8.9658000000000002E-2</v>
+        <v>1.50881E-2</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -9342,16 +9342,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>0.15126100000000001</v>
+        <v>7.3653499999999997E-2</v>
       </c>
       <c r="C43">
-        <v>0.146726</v>
+        <v>7.0871100000000006E-2</v>
       </c>
       <c r="D43">
-        <v>9.7802399999999998E-2</v>
+        <v>2.3513300000000001E-2</v>
       </c>
       <c r="E43">
-        <v>8.46272E-2</v>
+        <v>1.5046500000000001E-2</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -9359,16 +9359,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>0.15268300000000001</v>
+        <v>7.4961399999999997E-2</v>
       </c>
       <c r="C44">
-        <v>0.150037</v>
+        <v>7.2727700000000006E-2</v>
       </c>
       <c r="D44">
-        <v>9.7899899999999998E-2</v>
+        <v>2.39463E-2</v>
       </c>
       <c r="E44">
-        <v>8.6951100000000003E-2</v>
+        <v>1.49859E-2</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -9376,16 +9376,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>0.15543100000000001</v>
+        <v>7.6844899999999994E-2</v>
       </c>
       <c r="C45">
-        <v>0.15006800000000001</v>
+        <v>7.4516100000000002E-2</v>
       </c>
       <c r="D45">
-        <v>0.101021</v>
+        <v>2.34399E-2</v>
       </c>
       <c r="E45">
-        <v>9.6950499999999995E-2</v>
+        <v>1.55519E-2</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -9393,16 +9393,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>0.15704299999999999</v>
+        <v>7.9095899999999997E-2</v>
       </c>
       <c r="C46">
-        <v>0.147203</v>
+        <v>7.7898700000000001E-2</v>
       </c>
       <c r="D46">
-        <v>9.4003500000000004E-2</v>
+        <v>2.5637E-2</v>
       </c>
       <c r="E46">
-        <v>8.6475899999999994E-2</v>
+        <v>1.5197799999999999E-2</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -9410,16 +9410,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>0.15632599999999999</v>
+        <v>8.0191399999999996E-2</v>
       </c>
       <c r="C47">
-        <v>0.158274</v>
+        <v>7.8102000000000005E-2</v>
       </c>
       <c r="D47">
-        <v>0.10128</v>
+        <v>2.54676E-2</v>
       </c>
       <c r="E47">
-        <v>9.0625899999999995E-2</v>
+        <v>1.5337699999999999E-2</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -9427,16 +9427,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>0.15734100000000001</v>
+        <v>8.2300399999999996E-2</v>
       </c>
       <c r="C48">
-        <v>0.156114</v>
+        <v>8.0305399999999999E-2</v>
       </c>
       <c r="D48">
-        <v>9.2905299999999996E-2</v>
+        <v>2.5474199999999999E-2</v>
       </c>
       <c r="E48">
-        <v>8.9929700000000001E-2</v>
+        <v>1.54296E-2</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -9444,16 +9444,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>0.161546</v>
+        <v>8.2978499999999997E-2</v>
       </c>
       <c r="C49">
-        <v>0.15749299999999999</v>
+        <v>8.2472199999999996E-2</v>
       </c>
       <c r="D49">
-        <v>0.10145700000000001</v>
+        <v>2.4956099999999998E-2</v>
       </c>
       <c r="E49">
-        <v>9.4032000000000004E-2</v>
+        <v>1.56183E-2</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -9461,16 +9461,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>0.16409099999999999</v>
+        <v>8.4682999999999994E-2</v>
       </c>
       <c r="C50">
-        <v>0.16587199999999999</v>
+        <v>8.3105700000000005E-2</v>
       </c>
       <c r="D50">
-        <v>9.5094899999999996E-2</v>
+        <v>2.7125699999999999E-2</v>
       </c>
       <c r="E50">
-        <v>9.8271999999999998E-2</v>
+        <v>1.6638300000000002E-2</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -9478,16 +9478,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>0.163739</v>
+        <v>8.6538400000000001E-2</v>
       </c>
       <c r="C51">
-        <v>0.162684</v>
+        <v>8.5324399999999995E-2</v>
       </c>
       <c r="D51">
-        <v>0.101558</v>
+        <v>2.7869999999999999E-2</v>
       </c>
       <c r="E51">
-        <v>9.0007199999999996E-2</v>
+        <v>1.5857300000000001E-2</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -9495,16 +9495,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="1">
-        <v>0.165299</v>
+        <v>8.8115200000000005E-2</v>
       </c>
       <c r="C52">
-        <v>0.164298</v>
+        <v>8.7184899999999996E-2</v>
       </c>
       <c r="D52">
-        <v>0.101579</v>
+        <v>2.7294800000000001E-2</v>
       </c>
       <c r="E52">
-        <v>9.5967700000000003E-2</v>
+        <v>1.5835100000000001E-2</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -9512,16 +9512,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="1">
-        <v>0.16725400000000001</v>
+        <v>9.0050599999999995E-2</v>
       </c>
       <c r="C53">
-        <v>0.17172599999999999</v>
+        <v>8.8072800000000007E-2</v>
       </c>
       <c r="D53">
-        <v>0.102883</v>
+        <v>2.7286100000000001E-2</v>
       </c>
       <c r="E53">
-        <v>9.7134700000000004E-2</v>
+        <v>1.5654399999999999E-2</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -9529,16 +9529,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="1">
-        <v>0.16980000000000001</v>
+        <v>9.1257000000000005E-2</v>
       </c>
       <c r="C54">
-        <v>0.16994999999999999</v>
+        <v>9.0371499999999994E-2</v>
       </c>
       <c r="D54">
-        <v>0.106518</v>
+        <v>2.9109900000000001E-2</v>
       </c>
       <c r="E54">
-        <v>9.4233800000000006E-2</v>
+        <v>1.6339699999999999E-2</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -9546,16 +9546,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="1">
-        <v>0.17197399999999999</v>
+        <v>9.4047000000000006E-2</v>
       </c>
       <c r="C55">
-        <v>0.16883300000000001</v>
+        <v>9.1752200000000006E-2</v>
       </c>
       <c r="D55">
-        <v>0.105547</v>
+        <v>2.9553699999999999E-2</v>
       </c>
       <c r="E55">
-        <v>8.89683E-2</v>
+        <v>1.6354400000000002E-2</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -9563,16 +9563,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>0.174208</v>
+        <v>9.6853499999999995E-2</v>
       </c>
       <c r="C56">
-        <v>0.18162600000000001</v>
+        <v>9.3837799999999999E-2</v>
       </c>
       <c r="D56">
-        <v>0.106173</v>
+        <v>2.9448100000000001E-2</v>
       </c>
       <c r="E56">
-        <v>8.7052500000000005E-2</v>
+        <v>1.5942999999999999E-2</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -9580,16 +9580,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="1">
-        <v>0.177369</v>
+        <v>9.89588E-2</v>
       </c>
       <c r="C57">
-        <v>0.173426</v>
+        <v>9.7517999999999994E-2</v>
       </c>
       <c r="D57">
-        <v>0.101468</v>
+        <v>2.88478E-2</v>
       </c>
       <c r="E57">
-        <v>9.34387E-2</v>
+        <v>1.6038899999999998E-2</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -9597,16 +9597,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="1">
-        <v>0.17996200000000001</v>
+        <v>9.8788100000000004E-2</v>
       </c>
       <c r="C58">
-        <v>0.17341400000000001</v>
+        <v>9.9225099999999997E-2</v>
       </c>
       <c r="D58">
-        <v>0.10287200000000001</v>
+        <v>3.07552E-2</v>
       </c>
       <c r="E58">
-        <v>9.2886899999999994E-2</v>
+        <v>1.7170399999999999E-2</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -9614,16 +9614,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="1">
-        <v>0.17965700000000001</v>
+        <v>0.100979</v>
       </c>
       <c r="C59">
-        <v>0.18368100000000001</v>
+        <v>9.9303699999999995E-2</v>
       </c>
       <c r="D59">
-        <v>0.110565</v>
+        <v>3.05659E-2</v>
       </c>
       <c r="E59">
-        <v>9.71051E-2</v>
+        <v>1.7579999999999998E-2</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -9631,16 +9631,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="1">
-        <v>0.17827100000000001</v>
+        <v>0.10263700000000001</v>
       </c>
       <c r="C60">
-        <v>0.18393399999999999</v>
+        <v>0.102143</v>
       </c>
       <c r="D60">
-        <v>9.7630999999999996E-2</v>
+        <v>3.0565100000000001E-2</v>
       </c>
       <c r="E60">
-        <v>8.9285000000000003E-2</v>
+        <v>1.7490100000000001E-2</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -9648,16 +9648,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="1">
-        <v>0.18441399999999999</v>
+        <v>0.104059</v>
       </c>
       <c r="C61">
-        <v>0.18154200000000001</v>
+        <v>0.102697</v>
       </c>
       <c r="D61">
-        <v>0.105558</v>
+        <v>3.02025E-2</v>
       </c>
       <c r="E61">
-        <v>8.8979199999999994E-2</v>
+        <v>1.7598800000000001E-2</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -9665,16 +9665,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="1">
-        <v>0.18393399999999999</v>
+        <v>0.105379</v>
       </c>
       <c r="C62">
-        <v>0.187028</v>
+        <v>0.105084</v>
       </c>
       <c r="D62">
-        <v>0.10581699999999999</v>
+        <v>3.2562000000000001E-2</v>
       </c>
       <c r="E62">
-        <v>9.2426700000000001E-2</v>
+        <v>1.6926199999999999E-2</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -9682,16 +9682,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="1">
-        <v>0.186363</v>
+        <v>0.10815900000000001</v>
       </c>
       <c r="C63">
-        <v>0.184254</v>
+        <v>0.106153</v>
       </c>
       <c r="D63">
-        <v>0.111341</v>
+        <v>3.2096800000000002E-2</v>
       </c>
       <c r="E63">
-        <v>8.8617399999999999E-2</v>
+        <v>1.7889499999999999E-2</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -9699,16 +9699,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="1">
-        <v>0.18931200000000001</v>
+        <v>0.109291</v>
       </c>
       <c r="C64">
-        <v>0.18665999999999999</v>
+        <v>0.10921400000000001</v>
       </c>
       <c r="D64">
-        <v>0.10578600000000001</v>
+        <v>3.2319500000000001E-2</v>
       </c>
       <c r="E64">
-        <v>9.5069799999999996E-2</v>
+        <v>1.6784299999999999E-2</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -9716,16 +9716,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="1">
-        <v>0.19272900000000001</v>
+        <v>0.11059099999999999</v>
       </c>
       <c r="C65">
-        <v>0.19152</v>
+        <v>0.10997899999999999</v>
       </c>
       <c r="D65">
-        <v>0.10395799999999999</v>
+        <v>3.2871999999999998E-2</v>
       </c>
       <c r="E65">
-        <v>9.7716200000000003E-2</v>
+        <v>1.7399000000000001E-2</v>
       </c>
     </row>
   </sheetData>
